--- a/input/emissions-inventories/USA/New vs Prev EPA Trends.xlsx
+++ b/input/emissions-inventories/USA/New vs Prev EPA Trends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d3k117/Documents/Information &amp; Documents/CEDS_Project/CEDS/input/emissions-inventories/USA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B242A4-F008-6043-9A11-A0CFD9394DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A895FD-F9F3-744F-ACC3-62B8A3838060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="3620" windowWidth="31400" windowHeight="20040" activeTab="1" xr2:uid="{6D0437E1-ADF7-3841-A372-51301A7A9F28}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{6D0437E1-ADF7-3841-A372-51301A7A9F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="7" r:id="rId1"/>
@@ -1258,10 +1258,10 @@
                   <c:v>2344.9975617999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2342.8322156999998</c:v>
+                  <c:v>2279.8636182</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2111.9585794</c:v>
+                  <c:v>1972.6975064000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,10 +1531,10 @@
                   <c:v>1643.4631277999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1643.3023461</c:v>
+                  <c:v>1629.2356265999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1643.1415678999999</c:v>
+                  <c:v>1585.5157629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,10 +2071,10 @@
                   <c:v>612.91401184999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>612.91401184999995</c:v>
+                  <c:v>758.62944093999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>612.91401184999995</c:v>
+                  <c:v>758.58224693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3349,10 +3349,10 @@
                   <c:v>14262.128435000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15236.710942</c:v>
+                  <c:v>14617.170056000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14409.26029</c:v>
+                  <c:v>13811.550855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3622,10 +3622,10 @@
                   <c:v>11692.667473</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11692.596286</c:v>
+                  <c:v>11741.650129</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11692.525100000001</c:v>
+                  <c:v>11801.138763999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4453,10 +4453,10 @@
                   <c:v>3436.6226190000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3436.6226966999998</c:v>
+                  <c:v>3420.5080538000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3436.6226966999998</c:v>
+                  <c:v>3424.2995725000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5549,10 +5549,10 @@
                   <c:v>1044.3695177</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1040.4726768999999</c:v>
+                  <c:v>1057.3493278999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>970.71277611000005</c:v>
+                  <c:v>940.88654496000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5822,10 +5822,10 @@
                   <c:v>1079.2356967000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1079.2212778000001</c:v>
+                  <c:v>1049.7914459000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1079.2068583</c:v>
+                  <c:v>1027.7969945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7181,10 +7181,10 @@
                   <c:v>488.84536162000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>488.84536566999998</c:v>
+                  <c:v>486.78789685999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>488.84536566999998</c:v>
+                  <c:v>486.80010715999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7455,10 +7455,10 @@
                   <c:v>2710.2503861</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2710.2503861</c:v>
+                  <c:v>3018.1698290999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2710.2503861</c:v>
+                  <c:v>3017.6030818999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7732,10 +7732,10 @@
                   <c:v>2761.1086857999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2761.1135579000002</c:v>
+                  <c:v>2906.587258</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2761.1135579000002</c:v>
+                  <c:v>2908.2484863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9175,10 +9175,10 @@
                   <c:v>9.8707804774000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.437870168</c:v>
+                  <c:v>8.8985386897000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.231177768</c:v>
+                  <c:v>10.088341078999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9448,10 +9448,10 @@
                   <c:v>15.440410075000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.440430363000001</c:v>
+                  <c:v>17.752772942</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15.440451863</c:v>
+                  <c:v>17.757305563999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10532,13 +10532,13 @@
                   <c:v>79.261548262999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>84.872375418999994</c:v>
+                  <c:v>75.24373104</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>79.728632519000001</c:v>
+                  <c:v>69.209752108000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>63.175773274999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -10805,13 +10805,13 @@
                   <c:v>105.19514371</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>105.18627401000001</c:v>
+                  <c:v>102.62283924</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>105.17740841</c:v>
+                  <c:v>98.431548194000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>93.942483826</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -11787,10 +11787,10 @@
                   <c:v>4808.6320495200007</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="#,##0">
-                  <c:v>4808.6320495200007</c:v>
+                  <c:v>4510.1526170200004</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="#,##0">
-                  <c:v>4808.6320495200007</c:v>
+                  <c:v>4510.6631182519995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12036,10 +12036,10 @@
                   <c:v>90.213265218000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>101.22706011</c:v>
+                  <c:v>185.61620954</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100.12314091</c:v>
+                  <c:v>192.48586689999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20000,13 +20000,12 @@
       <sheetName val="README"/>
       <sheetName val="DevelopmentOfData"/>
       <sheetName val="CO"/>
-      <sheetName val="NOx"/>
+      <sheetName val="NOX"/>
       <sheetName val="PM10Primary"/>
       <sheetName val="PM25Primary"/>
       <sheetName val="SO2"/>
       <sheetName val="VOC"/>
       <sheetName val="NH3"/>
-      <sheetName val="NH3_Org"/>
       <sheetName val="Black Carbon"/>
       <sheetName val="Organic Carbon"/>
     </sheetNames>
@@ -20146,10 +20145,10 @@
             <v>3436.6226190000002</v>
           </cell>
           <cell r="AK9">
-            <v>3436.6226966999998</v>
+            <v>3420.5080538000002</v>
           </cell>
           <cell r="AL9">
-            <v>3436.6226966999998</v>
+            <v>3424.2995725000001</v>
           </cell>
         </row>
         <row r="10">
@@ -20339,10 +20338,10 @@
             <v>14262.128435000001</v>
           </cell>
           <cell r="AK17">
-            <v>15236.710942</v>
+            <v>14617.170056000001</v>
           </cell>
           <cell r="AL17">
-            <v>14409.26029</v>
+            <v>13811.550855</v>
           </cell>
         </row>
         <row r="18">
@@ -20455,10 +20454,10 @@
             <v>11692.667473</v>
           </cell>
           <cell r="AK18">
-            <v>11692.596286</v>
+            <v>11741.650129</v>
           </cell>
           <cell r="AL18">
-            <v>11692.525100000001</v>
+            <v>11801.138763999999</v>
           </cell>
         </row>
         <row r="19">
@@ -20475,9 +20474,6 @@
       </sheetData>
       <sheetData sheetId="3">
         <row r="7">
-          <cell r="B7">
-            <v>4900</v>
-          </cell>
           <cell r="R7">
             <v>4710.9786530000001</v>
           </cell>
@@ -20627,10 +20623,10 @@
             <v>612.91401184999995</v>
           </cell>
           <cell r="AK12">
-            <v>612.91401184999995</v>
+            <v>758.62944093999999</v>
           </cell>
           <cell r="AL12">
-            <v>612.91401184999995</v>
+            <v>758.58224693</v>
           </cell>
         </row>
         <row r="13">
@@ -20775,10 +20771,10 @@
             <v>2344.9975617999999</v>
           </cell>
           <cell r="AK17">
-            <v>2342.8322156999998</v>
+            <v>2279.8636182</v>
           </cell>
           <cell r="AL17">
-            <v>2111.9585794</v>
+            <v>1972.6975064000001</v>
           </cell>
         </row>
         <row r="18">
@@ -20891,10 +20887,10 @@
             <v>1643.4631277999999</v>
           </cell>
           <cell r="AK18">
-            <v>1643.3023461</v>
+            <v>1629.2356265999999</v>
           </cell>
           <cell r="AL18">
-            <v>1643.1415678999999</v>
+            <v>1585.5157629</v>
           </cell>
         </row>
         <row r="19">
@@ -21086,10 +21082,13 @@
             <v>79.261548262999995</v>
           </cell>
           <cell r="AG17">
-            <v>84.872375418999994</v>
+            <v>75.24373104</v>
           </cell>
           <cell r="AH17">
-            <v>79.728632519000001</v>
+            <v>69.209752108000004</v>
+          </cell>
+          <cell r="AI17">
+            <v>63.175773274999997</v>
           </cell>
         </row>
         <row r="18">
@@ -21190,10 +21189,13 @@
             <v>105.19514371</v>
           </cell>
           <cell r="AG18">
-            <v>105.18627401000001</v>
+            <v>102.62283924</v>
           </cell>
           <cell r="AH18">
-            <v>105.17740841</v>
+            <v>98.431548194000001</v>
+          </cell>
+          <cell r="AI18">
+            <v>93.942483826</v>
           </cell>
         </row>
         <row r="19">
@@ -21396,10 +21398,10 @@
             <v>9.8707804774000003</v>
           </cell>
           <cell r="AK17">
-            <v>14.437870168</v>
+            <v>8.8985386897000005</v>
           </cell>
           <cell r="AL17">
-            <v>13.231177768</v>
+            <v>10.088341078999999</v>
           </cell>
         </row>
         <row r="18">
@@ -21512,10 +21514,10 @@
             <v>15.440410075000001</v>
           </cell>
           <cell r="AK18">
-            <v>15.440430363000001</v>
+            <v>17.752772942</v>
           </cell>
           <cell r="AL18">
-            <v>15.440451863</v>
+            <v>17.757305563999999</v>
           </cell>
         </row>
         <row r="19">
@@ -21660,10 +21662,10 @@
             <v>488.84536162000001</v>
           </cell>
           <cell r="AK9">
-            <v>488.84536566999998</v>
+            <v>486.78789685999999</v>
           </cell>
           <cell r="AL9">
-            <v>488.84536566999998</v>
+            <v>486.80010715999998</v>
           </cell>
         </row>
         <row r="10">
@@ -21798,10 +21800,10 @@
             <v>2710.2503861</v>
           </cell>
           <cell r="AK12">
-            <v>2710.2503861</v>
+            <v>3018.1698290999998</v>
           </cell>
           <cell r="AL12">
-            <v>2710.2503861</v>
+            <v>3017.6030818999998</v>
           </cell>
         </row>
         <row r="13">
@@ -21925,10 +21927,10 @@
             <v>2761.1086857999999</v>
           </cell>
           <cell r="AK14">
-            <v>2761.1135579000002</v>
+            <v>2906.587258</v>
           </cell>
           <cell r="AL14">
-            <v>2761.1135579000002</v>
+            <v>2908.2484863</v>
           </cell>
         </row>
         <row r="15">
@@ -22063,10 +22065,10 @@
             <v>1044.3695177</v>
           </cell>
           <cell r="AK17">
-            <v>1040.4726768999999</v>
+            <v>1057.3493278999999</v>
           </cell>
           <cell r="AL17">
-            <v>970.71277611000005</v>
+            <v>940.88654496000004</v>
           </cell>
         </row>
         <row r="18">
@@ -22179,10 +22181,10 @@
             <v>1079.2356967000001</v>
           </cell>
           <cell r="AK18">
-            <v>1079.2212778000001</v>
+            <v>1049.7914459000001</v>
           </cell>
           <cell r="AL18">
-            <v>1079.2068583</v>
+            <v>1027.7969945</v>
           </cell>
         </row>
         <row r="19">
@@ -22197,8 +22199,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="8">
         <row r="7">
           <cell r="B7">
             <v>1990</v>
@@ -22508,10 +22509,10 @@
             <v>90.213265218000004</v>
           </cell>
           <cell r="AG18">
-            <v>101.22706011</v>
+            <v>185.61620954</v>
           </cell>
           <cell r="AH18">
-            <v>100.12314091</v>
+            <v>192.48586689999999</v>
           </cell>
         </row>
         <row r="19">
@@ -22627,15 +22628,15 @@
             <v>4808.6320495200007</v>
           </cell>
           <cell r="AG30">
-            <v>4808.6320495200007</v>
+            <v>4510.1526170200004</v>
           </cell>
           <cell r="AH30">
-            <v>4808.6320495200007</v>
+            <v>4510.6631182519995</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -23123,8 +23124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2092004B-69D9-784C-A001-0A77232188D8}">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L70" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O85" sqref="O85:W86"/>
@@ -23537,310 +23538,310 @@
     </row>
     <row r="4" spans="1:38" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="str">
-        <f>[2]NOx!A17</f>
+        <f>[2]NOX!A17</f>
         <v>HIGHWAY VEHICLES</v>
       </c>
       <c r="B4" s="4">
-        <f>[2]NOx!B17</f>
+        <f>[2]NOX!B17</f>
         <v>12624</v>
       </c>
       <c r="C4" s="4">
-        <f>[2]NOx!C17</f>
+        <f>[2]NOX!C17</f>
         <v>12061</v>
       </c>
       <c r="D4" s="4">
-        <f>[2]NOx!D17</f>
+        <f>[2]NOX!D17</f>
         <v>11493</v>
       </c>
       <c r="E4" s="4">
-        <f>[2]NOx!E17</f>
+        <f>[2]NOX!E17</f>
         <v>10932</v>
       </c>
       <c r="F4" s="4">
-        <f>[2]NOx!F17</f>
+        <f>[2]NOX!F17</f>
         <v>9592</v>
       </c>
       <c r="G4" s="4">
-        <f>[2]NOx!G17</f>
+        <f>[2]NOX!G17</f>
         <v>9449</v>
       </c>
       <c r="H4" s="4">
-        <f>[2]NOx!H17</f>
+        <f>[2]NOX!H17</f>
         <v>9306</v>
       </c>
       <c r="I4" s="4">
-        <f>[2]NOx!I17</f>
+        <f>[2]NOX!I17</f>
         <v>9162</v>
       </c>
       <c r="J4" s="4">
-        <f>[2]NOx!J17</f>
+        <f>[2]NOX!J17</f>
         <v>9019</v>
       </c>
       <c r="K4" s="4">
-        <f>[2]NOx!K17</f>
+        <f>[2]NOX!K17</f>
         <v>8876</v>
       </c>
       <c r="L4" s="4">
-        <f>[2]NOx!L17</f>
+        <f>[2]NOX!L17</f>
         <v>8732.7439600000016</v>
       </c>
       <c r="M4" s="4">
-        <f>[2]NOx!M17</f>
+        <f>[2]NOX!M17</f>
         <v>8791.7872799999986</v>
       </c>
       <c r="N4" s="4">
-        <f>[2]NOx!N17</f>
+        <f>[2]NOX!N17</f>
         <v>8619.2681699999994</v>
       </c>
       <c r="O4" s="4">
-        <f>[2]NOx!O17</f>
+        <f>[2]NOX!O17</f>
         <v>8371.3374299999996</v>
       </c>
       <c r="P4" s="4">
-        <f>[2]NOx!P17</f>
+        <f>[2]NOX!P17</f>
         <v>8393.5218599999989</v>
       </c>
       <c r="Q4" s="4">
-        <f>[2]NOx!Q17</f>
+        <f>[2]NOX!Q17</f>
         <v>7774.1959100000004</v>
       </c>
       <c r="R4" s="4">
-        <f>[2]NOx!R17</f>
+        <f>[2]NOX!R17</f>
         <v>12805.317056</v>
       </c>
       <c r="S4" s="4">
-        <f>[2]NOx!S17</f>
+        <f>[2]NOX!S17</f>
         <v>12314.087898</v>
       </c>
       <c r="T4" s="4">
-        <f>[2]NOx!T17</f>
+        <f>[2]NOX!T17</f>
         <v>11365.280153</v>
       </c>
       <c r="U4" s="4">
-        <f>[2]NOx!U17</f>
+        <f>[2]NOX!U17</f>
         <v>10414.990852000001</v>
       </c>
       <c r="V4" s="4">
-        <f>[2]NOx!V17</f>
+        <f>[2]NOX!V17</f>
         <v>9775.4400277999994</v>
       </c>
       <c r="W4" s="4">
-        <f>[2]NOx!W17</f>
+        <f>[2]NOX!W17</f>
         <v>8689.8897840000009</v>
       </c>
       <c r="X4" s="4">
-        <f>[2]NOx!X17</f>
+        <f>[2]NOX!X17</f>
         <v>8083.5541649999996</v>
       </c>
       <c r="Y4" s="4">
-        <f>[2]NOx!Y17</f>
+        <f>[2]NOX!Y17</f>
         <v>7293.9996867999998</v>
       </c>
       <c r="Z4" s="4">
-        <f>[2]NOx!Z17</f>
+        <f>[2]NOX!Z17</f>
         <v>7232.3828356000004</v>
       </c>
       <c r="AA4" s="4">
-        <f>[2]NOx!AA17</f>
+        <f>[2]NOX!AA17</f>
         <v>6460.6320808999999</v>
       </c>
       <c r="AB4" s="4">
-        <f>[2]NOx!AB17</f>
+        <f>[2]NOX!AB17</f>
         <v>5936.6976941000003</v>
       </c>
       <c r="AC4" s="4">
-        <f>[2]NOx!AC17</f>
+        <f>[2]NOX!AC17</f>
         <v>5435.3332948999996</v>
       </c>
       <c r="AD4" s="4">
-        <f>[2]NOx!AD17</f>
+        <f>[2]NOX!AD17</f>
         <v>4858.1132214999998</v>
       </c>
       <c r="AE4" s="4">
-        <f>[2]NOx!AE17</f>
+        <f>[2]NOX!AE17</f>
         <v>4269.8238265999998</v>
       </c>
       <c r="AF4" s="4">
-        <f>[2]NOx!AF17</f>
+        <f>[2]NOX!AF17</f>
         <v>3579.2344760000001</v>
       </c>
       <c r="AG4" s="4">
-        <f>[2]NOx!AG17</f>
+        <f>[2]NOX!AG17</f>
         <v>3239.8421699</v>
       </c>
       <c r="AH4" s="4">
-        <f>[2]NOx!AH17</f>
+        <f>[2]NOX!AH17</f>
         <v>2883.1191779000001</v>
       </c>
       <c r="AI4" s="4">
-        <f>[2]NOx!AI17</f>
+        <f>[2]NOX!AI17</f>
         <v>2820.5925926999998</v>
       </c>
       <c r="AJ4" s="4">
-        <f>[2]NOx!AJ17</f>
+        <f>[2]NOX!AJ17</f>
         <v>2344.9975617999999</v>
       </c>
       <c r="AK4" s="4">
-        <f>[2]NOx!AK17</f>
-        <v>2342.8322156999998</v>
+        <f>[2]NOX!AK17</f>
+        <v>2279.8636182</v>
       </c>
       <c r="AL4" s="4">
-        <f>[2]NOx!AL17</f>
-        <v>2111.9585794</v>
+        <f>[2]NOX!AL17</f>
+        <v>1972.6975064000001</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="str">
-        <f>[2]NOx!A18</f>
+        <f>[2]NOX!A18</f>
         <v>OFF-HIGHWAY</v>
       </c>
       <c r="B5" s="4">
-        <f>[2]NOx!B18</f>
+        <f>[2]NOX!B18</f>
         <v>2652</v>
       </c>
       <c r="C5" s="4">
-        <f>[2]NOx!C18</f>
+        <f>[2]NOX!C18</f>
         <v>2968</v>
       </c>
       <c r="D5" s="4">
-        <f>[2]NOx!D18</f>
+        <f>[2]NOX!D18</f>
         <v>3353</v>
       </c>
       <c r="E5" s="4">
-        <f>[2]NOx!E18</f>
+        <f>[2]NOX!E18</f>
         <v>3576</v>
       </c>
       <c r="F5" s="4">
-        <f>[2]NOx!F18</f>
+        <f>[2]NOX!F18</f>
         <v>3781</v>
       </c>
       <c r="G5" s="4">
-        <f>[2]NOx!G18</f>
+        <f>[2]NOX!G18</f>
         <v>3849</v>
       </c>
       <c r="H5" s="4">
-        <f>[2]NOx!H18</f>
+        <f>[2]NOX!H18</f>
         <v>3915</v>
       </c>
       <c r="I5" s="4">
-        <f>[2]NOx!I18</f>
+        <f>[2]NOX!I18</f>
         <v>3981</v>
       </c>
       <c r="J5" s="4">
-        <f>[2]NOx!J18</f>
+        <f>[2]NOX!J18</f>
         <v>4047</v>
       </c>
       <c r="K5" s="4">
-        <f>[2]NOx!K18</f>
+        <f>[2]NOX!K18</f>
         <v>4113</v>
       </c>
       <c r="L5" s="4">
-        <f>[2]NOx!L18</f>
+        <f>[2]NOX!L18</f>
         <v>4179.20856</v>
       </c>
       <c r="M5" s="4">
-        <f>[2]NOx!M18</f>
+        <f>[2]NOX!M18</f>
         <v>4178.1268799999998</v>
       </c>
       <c r="N5" s="4">
-        <f>[2]NOx!N18</f>
+        <f>[2]NOX!N18</f>
         <v>4156.3456699999997</v>
       </c>
       <c r="O5" s="4">
-        <f>[2]NOx!O18</f>
+        <f>[2]NOX!O18</f>
         <v>4084.4155989999999</v>
       </c>
       <c r="P5" s="4">
-        <f>[2]NOx!P18</f>
+        <f>[2]NOX!P18</f>
         <v>4166.9662539999999</v>
       </c>
       <c r="Q5" s="4">
-        <f>[2]NOx!Q18</f>
+        <f>[2]NOX!Q18</f>
         <v>4156.0193380000001</v>
       </c>
       <c r="R5" s="4">
-        <f>[2]NOx!R18</f>
+        <f>[2]NOX!R18</f>
         <v>3559.3517333999998</v>
       </c>
       <c r="S5" s="4">
-        <f>[2]NOx!S18</f>
+        <f>[2]NOX!S18</f>
         <v>3641.8725653000001</v>
       </c>
       <c r="T5" s="4">
-        <f>[2]NOx!T18</f>
+        <f>[2]NOX!T18</f>
         <v>3453.3141962</v>
       </c>
       <c r="U5" s="4">
-        <f>[2]NOx!U18</f>
+        <f>[2]NOX!U18</f>
         <v>3504.5742630999998</v>
       </c>
       <c r="V5" s="4">
-        <f>[2]NOx!V18</f>
+        <f>[2]NOX!V18</f>
         <v>3398.6093707</v>
       </c>
       <c r="W5" s="4">
-        <f>[2]NOx!W18</f>
+        <f>[2]NOX!W18</f>
         <v>3286.589285</v>
       </c>
       <c r="X5" s="4">
-        <f>[2]NOx!X18</f>
+        <f>[2]NOX!X18</f>
         <v>3081.2281932999999</v>
       </c>
       <c r="Y5" s="4">
-        <f>[2]NOx!Y18</f>
+        <f>[2]NOX!Y18</f>
         <v>2810.2007434000002</v>
       </c>
       <c r="Z5" s="4">
-        <f>[2]NOx!Z18</f>
+        <f>[2]NOX!Z18</f>
         <v>2727.5765704999999</v>
       </c>
       <c r="AA5" s="4">
-        <f>[2]NOx!AA18</f>
+        <f>[2]NOX!AA18</f>
         <v>2642.0198314999998</v>
       </c>
       <c r="AB5" s="4">
-        <f>[2]NOx!AB18</f>
+        <f>[2]NOX!AB18</f>
         <v>2501.9360359000002</v>
       </c>
       <c r="AC5" s="4">
-        <f>[2]NOx!AC18</f>
+        <f>[2]NOX!AC18</f>
         <v>2428.3325946999998</v>
       </c>
       <c r="AD5" s="4">
-        <f>[2]NOx!AD18</f>
+        <f>[2]NOX!AD18</f>
         <v>2374.2764041</v>
       </c>
       <c r="AE5" s="4">
-        <f>[2]NOx!AE18</f>
+        <f>[2]NOX!AE18</f>
         <v>2326.2312301000002</v>
       </c>
       <c r="AF5" s="4">
-        <f>[2]NOx!AF18</f>
+        <f>[2]NOX!AF18</f>
         <v>2151.4034796000001</v>
       </c>
       <c r="AG5" s="4">
-        <f>[2]NOx!AG18</f>
+        <f>[2]NOX!AG18</f>
         <v>2103.9895544000001</v>
       </c>
       <c r="AH5" s="4">
-        <f>[2]NOx!AH18</f>
+        <f>[2]NOX!AH18</f>
         <v>2061.3169825</v>
       </c>
       <c r="AI5" s="4">
-        <f>[2]NOx!AI18</f>
+        <f>[2]NOX!AI18</f>
         <v>1943.0572810000001</v>
       </c>
       <c r="AJ5" s="4">
-        <f>[2]NOx!AJ18</f>
+        <f>[2]NOX!AJ18</f>
         <v>1643.4631277999999</v>
       </c>
       <c r="AK5" s="4">
-        <f>[2]NOx!AK18</f>
-        <v>1643.3023461</v>
+        <f>[2]NOX!AK18</f>
+        <v>1629.2356265999999</v>
       </c>
       <c r="AL5" s="4">
-        <f>[2]NOx!AL18</f>
-        <v>1643.1415678999999</v>
+        <f>[2]NOX!AL18</f>
+        <v>1585.5157629</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -23987,156 +23988,156 @@
     </row>
     <row r="7" spans="1:38" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="str">
-        <f>[2]NOx!A12</f>
+        <f>[2]NOX!A12</f>
         <v>PETROLEUM &amp; RELATED INDUSTRIES</v>
       </c>
       <c r="B7" s="4">
-        <f>[2]NOx!B12</f>
+        <f>[2]NOX!B12</f>
         <v>240</v>
       </c>
       <c r="C7" s="4">
-        <f>[2]NOx!C12</f>
+        <f>[2]NOX!C12</f>
         <v>63</v>
       </c>
       <c r="D7" s="4">
-        <f>[2]NOx!D12</f>
+        <f>[2]NOX!D12</f>
         <v>72</v>
       </c>
       <c r="E7" s="4">
-        <f>[2]NOx!E12</f>
+        <f>[2]NOX!E12</f>
         <v>124</v>
       </c>
       <c r="F7" s="4">
-        <f>[2]NOx!F12</f>
+        <f>[2]NOX!F12</f>
         <v>153</v>
       </c>
       <c r="G7" s="4">
-        <f>[2]NOx!G12</f>
+        <f>[2]NOX!G12</f>
         <v>121</v>
       </c>
       <c r="H7" s="4">
-        <f>[2]NOx!H12</f>
+        <f>[2]NOX!H12</f>
         <v>148</v>
       </c>
       <c r="I7" s="4">
-        <f>[2]NOx!I12</f>
+        <f>[2]NOX!I12</f>
         <v>123</v>
       </c>
       <c r="J7" s="4">
-        <f>[2]NOx!J12</f>
+        <f>[2]NOX!J12</f>
         <v>117</v>
       </c>
       <c r="K7" s="4">
-        <f>[2]NOx!K12</f>
+        <f>[2]NOX!K12</f>
         <v>110</v>
       </c>
       <c r="L7" s="4">
-        <f>[2]NOx!L12</f>
+        <f>[2]NOX!L12</f>
         <v>139.08267999999998</v>
       </c>
       <c r="M7" s="4">
-        <f>[2]NOx!M12</f>
+        <f>[2]NOX!M12</f>
         <v>143.15672000000001</v>
       </c>
       <c r="N7" s="4">
-        <f>[2]NOx!N12</f>
+        <f>[2]NOX!N12</f>
         <v>142.97984</v>
       </c>
       <c r="O7" s="4">
-        <f>[2]NOx!O12</f>
+        <f>[2]NOX!O12</f>
         <v>120.085521</v>
       </c>
       <c r="P7" s="4">
-        <f>[2]NOx!P12</f>
+        <f>[2]NOX!P12</f>
         <v>122.131897</v>
       </c>
       <c r="Q7" s="4">
-        <f>[2]NOx!Q12</f>
+        <f>[2]NOX!Q12</f>
         <v>124.29669899999999</v>
       </c>
       <c r="R7" s="4">
-        <f>[2]NOx!R12</f>
+        <f>[2]NOX!R12</f>
         <v>571.07890176000001</v>
       </c>
       <c r="S7" s="4">
-        <f>[2]NOx!S12</f>
+        <f>[2]NOX!S12</f>
         <v>606.26070945000004</v>
       </c>
       <c r="T7" s="4">
-        <f>[2]NOx!T12</f>
+        <f>[2]NOX!T12</f>
         <v>634.21757506999995</v>
       </c>
       <c r="U7" s="4">
-        <f>[2]NOx!U12</f>
+        <f>[2]NOX!U12</f>
         <v>667.82478185000002</v>
       </c>
       <c r="V7" s="4">
-        <f>[2]NOx!V12</f>
+        <f>[2]NOX!V12</f>
         <v>697.19383791999996</v>
       </c>
       <c r="W7" s="4">
-        <f>[2]NOx!W12</f>
+        <f>[2]NOX!W12</f>
         <v>716.21162820999996</v>
       </c>
       <c r="X7" s="4">
-        <f>[2]NOx!X12</f>
+        <f>[2]NOX!X12</f>
         <v>773.54398682999999</v>
       </c>
       <c r="Y7" s="4">
-        <f>[2]NOx!Y12</f>
+        <f>[2]NOX!Y12</f>
         <v>680.05669291000004</v>
       </c>
       <c r="Z7" s="4">
-        <f>[2]NOx!Z12</f>
+        <f>[2]NOX!Z12</f>
         <v>684.46945386000004</v>
       </c>
       <c r="AA7" s="4">
-        <f>[2]NOx!AA12</f>
+        <f>[2]NOX!AA12</f>
         <v>763.68738074999999</v>
       </c>
       <c r="AB7" s="4">
-        <f>[2]NOx!AB12</f>
+        <f>[2]NOX!AB12</f>
         <v>850.91986757999996</v>
       </c>
       <c r="AC7" s="4">
-        <f>[2]NOx!AC12</f>
+        <f>[2]NOX!AC12</f>
         <v>700.54867574000002</v>
       </c>
       <c r="AD7" s="4">
-        <f>[2]NOx!AD12</f>
+        <f>[2]NOX!AD12</f>
         <v>748.66114995999999</v>
       </c>
       <c r="AE7" s="4">
-        <f>[2]NOx!AE12</f>
+        <f>[2]NOX!AE12</f>
         <v>670.28241374000004</v>
       </c>
       <c r="AF7" s="4">
-        <f>[2]NOx!AF12</f>
+        <f>[2]NOX!AF12</f>
         <v>611.60619869000004</v>
       </c>
       <c r="AG7" s="4">
-        <f>[2]NOx!AG12</f>
+        <f>[2]NOX!AG12</f>
         <v>579.18249164999997</v>
       </c>
       <c r="AH7" s="4">
-        <f>[2]NOx!AH12</f>
+        <f>[2]NOX!AH12</f>
         <v>574.47540142000003</v>
       </c>
       <c r="AI7" s="4">
-        <f>[2]NOx!AI12</f>
+        <f>[2]NOX!AI12</f>
         <v>546.02140878</v>
       </c>
       <c r="AJ7" s="4">
-        <f>[2]NOx!AJ12</f>
+        <f>[2]NOX!AJ12</f>
         <v>612.91401184999995</v>
       </c>
       <c r="AK7" s="4">
-        <f>[2]NOx!AK12</f>
-        <v>612.91401184999995</v>
+        <f>[2]NOX!AK12</f>
+        <v>758.62944093999999</v>
       </c>
       <c r="AL7" s="4">
-        <f>[2]NOx!AL12</f>
-        <v>612.91401184999995</v>
+        <f>[2]NOX!AL12</f>
+        <v>758.58224693</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -24169,7 +24170,7 @@
         <v>4709.4075706228896</v>
       </c>
       <c r="C10" s="4">
-        <f>[2]NOx!R7</f>
+        <f>[2]NOX!R7</f>
         <v>4710.9786530000001</v>
       </c>
       <c r="D10" s="4">
@@ -24191,7 +24192,7 @@
         <v>2040.8726871181088</v>
       </c>
       <c r="C11" s="4">
-        <f>[2]NOx!R8</f>
+        <f>[2]NOX!R8</f>
         <v>2046.2985242</v>
       </c>
       <c r="D11" s="4">
@@ -24213,7 +24214,7 @@
         <v>737.82918226867719</v>
       </c>
       <c r="C12" s="4">
-        <f>[2]NOx!R9</f>
+        <f>[2]NOX!R9</f>
         <v>735.62228747999995</v>
       </c>
       <c r="D12" s="4">
@@ -24235,7 +24236,7 @@
         <v>69.832238463935283</v>
       </c>
       <c r="C13" s="4">
-        <f>[2]NOx!R10</f>
+        <f>[2]NOX!R10</f>
         <v>69.832240677000001</v>
       </c>
       <c r="D13" s="4">
@@ -24257,7 +24258,7 @@
         <v>68.942318994498351</v>
       </c>
       <c r="C14" s="4">
-        <f>[2]NOx!R11</f>
+        <f>[2]NOX!R11</f>
         <v>68.880899483999997</v>
       </c>
       <c r="D14" s="4">
@@ -24279,7 +24280,7 @@
         <v>354.19122147511536</v>
       </c>
       <c r="C15" s="4">
-        <f>[2]NOx!R12</f>
+        <f>[2]NOX!R12</f>
         <v>571.07890176000001</v>
       </c>
       <c r="D15" s="4">
@@ -24301,7 +24302,7 @@
         <v>429.41703632859327</v>
       </c>
       <c r="C16" s="4">
-        <f>[2]NOx!R13</f>
+        <f>[2]NOX!R13</f>
         <v>432.08292911000001</v>
       </c>
       <c r="D16" s="4">
@@ -24323,7 +24324,7 @@
         <v>6.8837153010068972</v>
       </c>
       <c r="C17" s="4">
-        <f>[2]NOx!R14</f>
+        <f>[2]NOX!R14</f>
         <v>1E-4</v>
       </c>
       <c r="D17" s="4">
@@ -24345,7 +24346,7 @@
         <v>19.134947455362997</v>
       </c>
       <c r="C18" s="4">
-        <f>[2]NOx!R15</f>
+        <f>[2]NOX!R15</f>
         <v>19.073714494000001</v>
       </c>
       <c r="D18" s="4">
@@ -24367,7 +24368,7 @@
         <v>110.75884598519221</v>
       </c>
       <c r="C19" s="4">
-        <f>[2]NOx!R16</f>
+        <f>[2]NOX!R16</f>
         <v>55.461705174000002</v>
       </c>
       <c r="D19" s="4">
@@ -24389,7 +24390,7 @@
         <v>10337.276260006405</v>
       </c>
       <c r="C20" s="4">
-        <f>[2]NOx!R17</f>
+        <f>[2]NOX!R17</f>
         <v>12805.317056</v>
       </c>
       <c r="D20" s="4">
@@ -24411,7 +24412,7 @@
         <v>4863.6926120568432</v>
       </c>
       <c r="C21" s="4">
-        <f>[2]NOx!R18</f>
+        <f>[2]NOX!R18</f>
         <v>3559.3517333999998</v>
       </c>
       <c r="D21" s="4">
@@ -24433,7 +24434,7 @@
         <v>210.5218700388956</v>
       </c>
       <c r="C22" s="4">
-        <f>[2]NOx!R19</f>
+        <f>[2]NOX!R19</f>
         <v>179.8955129</v>
       </c>
       <c r="D22" s="4">
@@ -24497,7 +24498,7 @@
         <v>4339.60928423526</v>
       </c>
       <c r="C28" s="4">
-        <f>[2]NOx!S7</f>
+        <f>[2]NOX!S7</f>
         <v>4403.8774667999996</v>
       </c>
       <c r="D28" s="4">
@@ -24519,7 +24520,7 @@
         <v>1971.3723553472516</v>
       </c>
       <c r="C29" s="4">
-        <f>[2]NOx!S8</f>
+        <f>[2]NOX!S8</f>
         <v>2046.4127512</v>
       </c>
       <c r="D29" s="4">
@@ -24541,7 +24542,7 @@
         <v>736.43552061866342</v>
       </c>
       <c r="C30" s="4">
-        <f>[2]NOx!S9</f>
+        <f>[2]NOX!S9</f>
         <v>736.85318325000003</v>
       </c>
       <c r="D30" s="4">
@@ -24563,7 +24564,7 @@
         <v>66.85504224209707</v>
       </c>
       <c r="C31" s="4">
-        <f>[2]NOx!S10</f>
+        <f>[2]NOX!S10</f>
         <v>69.832240677000001</v>
       </c>
       <c r="D31" s="4">
@@ -24585,7 +24586,7 @@
         <v>68.031785881019914</v>
       </c>
       <c r="C32" s="4">
-        <f>[2]NOx!S11</f>
+        <f>[2]NOX!S11</f>
         <v>68.880899483999997</v>
       </c>
       <c r="D32" s="4">
@@ -24607,7 +24608,7 @@
         <v>357.19445137944541</v>
       </c>
       <c r="C33" s="4">
-        <f>[2]NOx!S12</f>
+        <f>[2]NOX!S12</f>
         <v>606.26070945000004</v>
       </c>
       <c r="D33" s="4">
@@ -24629,7 +24630,7 @@
         <v>448.09480315366233</v>
       </c>
       <c r="C34" s="4">
-        <f>[2]NOx!S13</f>
+        <f>[2]NOX!S13</f>
         <v>432.02986965000002</v>
       </c>
       <c r="D34" s="4">
@@ -24651,7 +24652,7 @@
         <v>6.0440878971122682</v>
       </c>
       <c r="C35" s="4">
-        <f>[2]NOx!S14</f>
+        <f>[2]NOX!S14</f>
         <v>1E-4</v>
       </c>
       <c r="D35" s="4">
@@ -24673,7 +24674,7 @@
         <v>18.126297306349759</v>
       </c>
       <c r="C36" s="4">
-        <f>[2]NOx!S15</f>
+        <f>[2]NOX!S15</f>
         <v>19.073714494000001</v>
       </c>
       <c r="D36" s="4">
@@ -24695,7 +24696,7 @@
         <v>122.45176893154651</v>
       </c>
       <c r="C37" s="4">
-        <f>[2]NOx!S16</f>
+        <f>[2]NOX!S16</f>
         <v>55.461705174000002</v>
       </c>
       <c r="D37" s="4">
@@ -24717,7 +24718,7 @@
         <v>9670.7664437215917</v>
       </c>
       <c r="C38" s="4">
-        <f>[2]NOx!S17</f>
+        <f>[2]NOX!S17</f>
         <v>12314.087898</v>
       </c>
       <c r="D38" s="4">
@@ -24739,7 +24740,7 @@
         <v>4667.3733983374059</v>
       </c>
       <c r="C39" s="4">
-        <f>[2]NOx!S18</f>
+        <f>[2]NOX!S18</f>
         <v>3641.8725653000001</v>
       </c>
       <c r="D39" s="4">
@@ -24761,7 +24762,7 @@
         <v>178.22100162229688</v>
       </c>
       <c r="C40" s="4">
-        <f>[2]NOx!S19</f>
+        <f>[2]NOX!S19</f>
         <v>215.99446470000001</v>
       </c>
       <c r="D40" s="4">
@@ -25428,11 +25429,11 @@
       </c>
       <c r="Z85" s="20">
         <f t="shared" si="12"/>
-        <v>-375.12973382691985</v>
+        <v>-312.16113632692009</v>
       </c>
       <c r="AA85" s="20">
         <f t="shared" si="12"/>
-        <v>-161.61517382027</v>
+        <v>-22.354100820270105</v>
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.2">
@@ -26862,155 +26863,155 @@
     </row>
     <row r="105" spans="1:38" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="11">
-        <f>[2]NOx!A20</f>
+        <f>[2]NOX!A20</f>
         <v>0</v>
       </c>
       <c r="B105" s="4">
-        <f>[2]NOx!B20</f>
+        <f>[2]NOX!B20</f>
         <v>0</v>
       </c>
       <c r="C105" s="4">
-        <f>[2]NOx!C20</f>
+        <f>[2]NOX!C20</f>
         <v>0</v>
       </c>
       <c r="D105" s="4">
-        <f>[2]NOx!D20</f>
+        <f>[2]NOX!D20</f>
         <v>0</v>
       </c>
       <c r="E105" s="4">
-        <f>[2]NOx!E20</f>
+        <f>[2]NOX!E20</f>
         <v>0</v>
       </c>
       <c r="F105" s="4">
-        <f>[2]NOx!F20</f>
+        <f>[2]NOX!F20</f>
         <v>0</v>
       </c>
       <c r="G105" s="4">
-        <f>[2]NOx!G20</f>
+        <f>[2]NOX!G20</f>
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f>[2]NOx!H20</f>
+        <f>[2]NOX!H20</f>
         <v>0</v>
       </c>
       <c r="I105" s="4">
-        <f>[2]NOx!I20</f>
+        <f>[2]NOX!I20</f>
         <v>0</v>
       </c>
       <c r="J105" s="4">
-        <f>[2]NOx!J20</f>
+        <f>[2]NOX!J20</f>
         <v>0</v>
       </c>
       <c r="K105" s="4">
-        <f>[2]NOx!K20</f>
+        <f>[2]NOX!K20</f>
         <v>0</v>
       </c>
       <c r="L105" s="4">
-        <f>[2]NOx!L20</f>
+        <f>[2]NOX!L20</f>
         <v>0</v>
       </c>
       <c r="M105" s="4">
-        <f>[2]NOx!M20</f>
+        <f>[2]NOX!M20</f>
         <v>0</v>
       </c>
       <c r="N105" s="4">
-        <f>[2]NOx!N20</f>
+        <f>[2]NOX!N20</f>
         <v>0</v>
       </c>
       <c r="O105" s="4">
-        <f>[2]NOx!O20</f>
+        <f>[2]NOX!O20</f>
         <v>0</v>
       </c>
       <c r="P105" s="4">
-        <f>[2]NOx!P20</f>
+        <f>[2]NOX!P20</f>
         <v>0</v>
       </c>
       <c r="Q105" s="4">
-        <f>[2]NOx!Q20</f>
+        <f>[2]NOX!Q20</f>
         <v>0</v>
       </c>
       <c r="R105" s="4">
-        <f>[2]NOx!R20</f>
+        <f>[2]NOX!R20</f>
         <v>0</v>
       </c>
       <c r="S105" s="4">
-        <f>[2]NOx!S20</f>
+        <f>[2]NOX!S20</f>
         <v>0</v>
       </c>
       <c r="T105" s="4">
-        <f>[2]NOx!T20</f>
+        <f>[2]NOX!T20</f>
         <v>0</v>
       </c>
       <c r="U105" s="4">
-        <f>[2]NOx!U20</f>
+        <f>[2]NOX!U20</f>
         <v>0</v>
       </c>
       <c r="V105" s="4">
-        <f>[2]NOx!V20</f>
+        <f>[2]NOX!V20</f>
         <v>0</v>
       </c>
       <c r="W105" s="4">
-        <f>[2]NOx!W20</f>
+        <f>[2]NOX!W20</f>
         <v>0</v>
       </c>
       <c r="X105" s="4">
-        <f>[2]NOx!X20</f>
+        <f>[2]NOX!X20</f>
         <v>0</v>
       </c>
       <c r="Y105" s="4">
-        <f>[2]NOx!Y20</f>
+        <f>[2]NOX!Y20</f>
         <v>0</v>
       </c>
       <c r="Z105" s="4">
-        <f>[2]NOx!Z20</f>
+        <f>[2]NOX!Z20</f>
         <v>0</v>
       </c>
       <c r="AA105" s="4">
-        <f>[2]NOx!AA20</f>
+        <f>[2]NOX!AA20</f>
         <v>0</v>
       </c>
       <c r="AB105" s="4">
-        <f>[2]NOx!AB20</f>
+        <f>[2]NOX!AB20</f>
         <v>0</v>
       </c>
       <c r="AC105" s="4">
-        <f>[2]NOx!AC20</f>
+        <f>[2]NOX!AC20</f>
         <v>0</v>
       </c>
       <c r="AD105" s="4">
-        <f>[2]NOx!AD20</f>
+        <f>[2]NOX!AD20</f>
         <v>0</v>
       </c>
       <c r="AE105" s="4">
-        <f>[2]NOx!AE20</f>
+        <f>[2]NOX!AE20</f>
         <v>0</v>
       </c>
       <c r="AF105" s="4">
-        <f>[2]NOx!AF20</f>
+        <f>[2]NOX!AF20</f>
         <v>0</v>
       </c>
       <c r="AG105" s="4">
-        <f>[2]NOx!AG20</f>
+        <f>[2]NOX!AG20</f>
         <v>0</v>
       </c>
       <c r="AH105" s="4">
-        <f>[2]NOx!AH20</f>
+        <f>[2]NOX!AH20</f>
         <v>0</v>
       </c>
       <c r="AI105" s="4">
-        <f>[2]NOx!AI20</f>
+        <f>[2]NOX!AI20</f>
         <v>0</v>
       </c>
       <c r="AJ105" s="4">
-        <f>[2]NOx!AJ20</f>
+        <f>[2]NOX!AJ20</f>
         <v>0</v>
       </c>
       <c r="AK105" s="4">
-        <f>[2]NOx!AK20</f>
+        <f>[2]NOX!AK20</f>
         <v>0</v>
       </c>
       <c r="AL105" s="4">
-        <f>[2]NOx!AL20</f>
+        <f>[2]NOX!AL20</f>
         <v>0</v>
       </c>
     </row>
@@ -27025,7 +27026,7 @@
   <dimension ref="A1:AP59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
@@ -27584,11 +27585,11 @@
       </c>
       <c r="AK4" s="4">
         <f>[2]CO!AK17</f>
-        <v>15236.710942</v>
+        <v>14617.170056000001</v>
       </c>
       <c r="AL4" s="4">
         <f>[2]CO!AL17</f>
-        <v>14409.26029</v>
+        <v>13811.550855</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -27738,11 +27739,11 @@
       </c>
       <c r="AK5" s="4">
         <f>[2]CO!AK18</f>
-        <v>11692.596286</v>
+        <v>11741.650129</v>
       </c>
       <c r="AL5" s="4">
         <f>[2]CO!AL18</f>
-        <v>11692.525100000001</v>
+        <v>11801.138763999999</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -28034,11 +28035,11 @@
       </c>
       <c r="AK7" s="4">
         <f>[2]CO!AK9</f>
-        <v>3436.6226966999998</v>
+        <v>3420.5080538000002</v>
       </c>
       <c r="AL7" s="4">
         <f>[2]CO!AL9</f>
-        <v>3436.6226966999998</v>
+        <v>3424.2995725000001</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -29497,7 +29498,7 @@
   <dimension ref="A1:BT78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
@@ -30055,11 +30056,11 @@
       </c>
       <c r="AK4" s="4">
         <f>[2]VOC!AK17</f>
-        <v>1040.4726768999999</v>
+        <v>1057.3493278999999</v>
       </c>
       <c r="AL4" s="4">
         <f>[2]VOC!AL17</f>
-        <v>970.71277611000005</v>
+        <v>940.88654496000004</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -30209,11 +30210,11 @@
       </c>
       <c r="AK5" s="4">
         <f>[2]VOC!AK18</f>
-        <v>1079.2212778000001</v>
+        <v>1049.7914459000001</v>
       </c>
       <c r="AL5" s="4">
         <f>[2]VOC!AL18</f>
-        <v>1079.2068583</v>
+        <v>1027.7969945</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -32378,11 +32379,11 @@
       </c>
       <c r="AK76" s="4">
         <f>[2]VOC!AK9</f>
-        <v>488.84536566999998</v>
+        <v>486.78789685999999</v>
       </c>
       <c r="AL76" s="4">
         <f>[2]VOC!AL9</f>
-        <v>488.84536566999998</v>
+        <v>486.80010715999998</v>
       </c>
     </row>
     <row r="77" spans="1:72" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -32532,11 +32533,11 @@
       </c>
       <c r="AK77" s="4">
         <f>[2]VOC!AK12</f>
-        <v>2710.2503861</v>
+        <v>3018.1698290999998</v>
       </c>
       <c r="AL77" s="4">
         <f>[2]VOC!AL12</f>
-        <v>2710.2503861</v>
+        <v>3017.6030818999998</v>
       </c>
     </row>
     <row r="78" spans="1:72" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -32686,11 +32687,11 @@
       </c>
       <c r="AK78" s="4">
         <f>[2]VOC!AK14</f>
-        <v>2761.1135579000002</v>
+        <v>2906.587258</v>
       </c>
       <c r="AL78" s="4">
         <f>[2]VOC!AL14</f>
-        <v>2761.1135579000002</v>
+        <v>2908.2484863</v>
       </c>
     </row>
   </sheetData>
@@ -33263,11 +33264,11 @@
       </c>
       <c r="AK4" s="4">
         <f>[2]SO2!AK17</f>
-        <v>14.437870168</v>
+        <v>8.8985386897000005</v>
       </c>
       <c r="AL4" s="4">
         <f>[2]SO2!AL17</f>
-        <v>13.231177768</v>
+        <v>10.088341078999999</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -33417,11 +33418,11 @@
       </c>
       <c r="AK5" s="4">
         <f>[2]SO2!AK18</f>
-        <v>15.440430363000001</v>
+        <v>17.752772942</v>
       </c>
       <c r="AL5" s="4">
         <f>[2]SO2!AL18</f>
-        <v>15.440451863</v>
+        <v>17.757305563999999</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -34301,15 +34302,15 @@
       </c>
       <c r="AG4" s="4">
         <f>[2]PM25Primary!AG17</f>
-        <v>84.872375418999994</v>
+        <v>75.24373104</v>
       </c>
       <c r="AH4" s="4">
         <f>[2]PM25Primary!AH17</f>
-        <v>79.728632519000001</v>
+        <v>69.209752108000004</v>
       </c>
       <c r="AI4" s="4">
         <f>[2]PM25Primary!AI17</f>
-        <v>0</v>
+        <v>63.175773274999997</v>
       </c>
       <c r="AJ4" s="4">
         <f>[2]PM25Primary!AJ17</f>
@@ -34455,15 +34456,15 @@
       </c>
       <c r="AG5" s="4">
         <f>[2]PM25Primary!AG18</f>
-        <v>105.18627401000001</v>
+        <v>102.62283924</v>
       </c>
       <c r="AH5" s="4">
         <f>[2]PM25Primary!AH18</f>
-        <v>105.17740841</v>
+        <v>98.431548194000001</v>
       </c>
       <c r="AI5" s="4">
         <f>[2]PM25Primary!AI18</f>
-        <v>0</v>
+        <v>93.942483826</v>
       </c>
       <c r="AJ5" s="4">
         <f>[2]PM25Primary!AJ18</f>
@@ -34811,11 +34812,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09179114-18E1-434F-9791-C392EEAC77EA}">
   <dimension ref="A1:AH68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="G7:H45"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34829,135 +34830,135 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <f>[2]NH3_Org!B$7</f>
+        <f>[2]NH3!B$7</f>
         <v>1990</v>
       </c>
       <c r="C1" s="2">
-        <f>[2]NH3_Org!C$7</f>
+        <f>[2]NH3!C$7</f>
         <v>1991</v>
       </c>
       <c r="D1" s="2">
-        <f>[2]NH3_Org!D$7</f>
+        <f>[2]NH3!D$7</f>
         <v>1992</v>
       </c>
       <c r="E1" s="2">
-        <f>[2]NH3_Org!E$7</f>
+        <f>[2]NH3!E$7</f>
         <v>1993</v>
       </c>
       <c r="F1" s="2">
-        <f>[2]NH3_Org!F$7</f>
+        <f>[2]NH3!F$7</f>
         <v>1994</v>
       </c>
       <c r="G1" s="2">
-        <f>[2]NH3_Org!G$7</f>
+        <f>[2]NH3!G$7</f>
         <v>1995</v>
       </c>
       <c r="H1" s="2">
-        <f>[2]NH3_Org!H$7</f>
+        <f>[2]NH3!H$7</f>
         <v>1996</v>
       </c>
       <c r="I1" s="2">
-        <f>[2]NH3_Org!I$7</f>
+        <f>[2]NH3!I$7</f>
         <v>1997</v>
       </c>
       <c r="J1" s="2">
-        <f>[2]NH3_Org!J$7</f>
+        <f>[2]NH3!J$7</f>
         <v>1998</v>
       </c>
       <c r="K1" s="2">
-        <f>[2]NH3_Org!K$7</f>
+        <f>[2]NH3!K$7</f>
         <v>1999</v>
       </c>
       <c r="L1" s="2">
-        <f>[2]NH3_Org!L$7</f>
+        <f>[2]NH3!L$7</f>
         <v>2000</v>
       </c>
       <c r="M1" s="2">
-        <f>[2]NH3_Org!M$7</f>
+        <f>[2]NH3!M$7</f>
         <v>2001</v>
       </c>
       <c r="N1" s="2">
-        <f>[2]NH3_Org!N$7</f>
+        <f>[2]NH3!N$7</f>
         <v>2002</v>
       </c>
       <c r="O1" s="2">
-        <f>[2]NH3_Org!O$7</f>
+        <f>[2]NH3!O$7</f>
         <v>2003</v>
       </c>
       <c r="P1" s="2">
-        <f>[2]NH3_Org!P$7</f>
+        <f>[2]NH3!P$7</f>
         <v>2004</v>
       </c>
       <c r="Q1" s="2">
-        <f>[2]NH3_Org!Q$7</f>
+        <f>[2]NH3!Q$7</f>
         <v>2005</v>
       </c>
       <c r="R1" s="2">
-        <f>[2]NH3_Org!R$7</f>
+        <f>[2]NH3!R$7</f>
         <v>2006</v>
       </c>
       <c r="S1" s="2">
-        <f>[2]NH3_Org!S$7</f>
+        <f>[2]NH3!S$7</f>
         <v>2007</v>
       </c>
       <c r="T1" s="2">
-        <f>[2]NH3_Org!T$7</f>
+        <f>[2]NH3!T$7</f>
         <v>2008</v>
       </c>
       <c r="U1" s="2">
-        <f>[2]NH3_Org!U$7</f>
+        <f>[2]NH3!U$7</f>
         <v>2009</v>
       </c>
       <c r="V1" s="2">
-        <f>[2]NH3_Org!V$7</f>
+        <f>[2]NH3!V$7</f>
         <v>2010</v>
       </c>
       <c r="W1" s="2">
-        <f>[2]NH3_Org!W$7</f>
+        <f>[2]NH3!W$7</f>
         <v>2011</v>
       </c>
       <c r="X1" s="2">
-        <f>[2]NH3_Org!X$7</f>
+        <f>[2]NH3!X$7</f>
         <v>2012</v>
       </c>
       <c r="Y1" s="2">
-        <f>[2]NH3_Org!Y$7</f>
+        <f>[2]NH3!Y$7</f>
         <v>2013</v>
       </c>
       <c r="Z1" s="2">
-        <f>[2]NH3_Org!Z$7</f>
+        <f>[2]NH3!Z$7</f>
         <v>2014</v>
       </c>
       <c r="AA1" s="2">
-        <f>[2]NH3_Org!AA$7</f>
+        <f>[2]NH3!AA$7</f>
         <v>2015</v>
       </c>
       <c r="AB1" s="2">
-        <f>[2]NH3_Org!AB$7</f>
+        <f>[2]NH3!AB$7</f>
         <v>2016</v>
       </c>
       <c r="AC1" s="2">
-        <f>[2]NH3_Org!AC$7</f>
+        <f>[2]NH3!AC$7</f>
         <v>2017</v>
       </c>
       <c r="AD1" s="2">
-        <f>[2]NH3_Org!AD$7</f>
+        <f>[2]NH3!AD$7</f>
         <v>2018</v>
       </c>
       <c r="AE1" s="2">
-        <f>[2]NH3_Org!AE$7</f>
+        <f>[2]NH3!AE$7</f>
         <v>2019</v>
       </c>
       <c r="AF1" s="2">
-        <f>[2]NH3_Org!AF$7</f>
+        <f>[2]NH3!AF$7</f>
         <v>2020</v>
       </c>
       <c r="AG1" s="2">
-        <f>[2]NH3_Org!AG$7</f>
+        <f>[2]NH3!AG$7</f>
         <v>2021</v>
       </c>
       <c r="AH1" s="2">
-        <f>[2]NH3_Org!AH$7</f>
+        <f>[2]NH3!AH$7</f>
         <v>2022</v>
       </c>
     </row>
@@ -35191,7 +35192,7 @@
     </row>
     <row r="4" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="str">
-        <f>[2]NH3_Org!A30</f>
+        <f>[2]NH3!A30</f>
         <v>Miscellaneous without wildfires</v>
       </c>
       <c r="B4"/>
@@ -35207,226 +35208,226 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" s="4">
-        <f>[2]NH3_Org!N30</f>
+        <f>[2]NH3!N30</f>
         <v>3852.1996261599998</v>
       </c>
       <c r="O4" s="4">
-        <f>[2]NH3_Org!O30</f>
+        <f>[2]NH3!O30</f>
         <v>3877.0037543200001</v>
       </c>
       <c r="P4" s="4">
-        <f>[2]NH3_Org!P30</f>
+        <f>[2]NH3!P30</f>
         <v>3870.8829904919999</v>
       </c>
       <c r="Q4" s="4">
-        <f>[2]NH3_Org!Q30</f>
+        <f>[2]NH3!Q30</f>
         <v>4183.586479353</v>
       </c>
       <c r="R4" s="4">
-        <f>[2]NH3_Org!R30</f>
+        <f>[2]NH3!R30</f>
         <v>4065.9422197830004</v>
       </c>
       <c r="S4" s="4">
-        <f>[2]NH3_Org!S30</f>
+        <f>[2]NH3!S30</f>
         <v>4294.6560346799997</v>
       </c>
       <c r="T4" s="4">
-        <f>[2]NH3_Org!T30</f>
+        <f>[2]NH3!T30</f>
         <v>4168.4828002530003</v>
       </c>
       <c r="U4" s="4">
-        <f>[2]NH3_Org!U30</f>
+        <f>[2]NH3!U30</f>
         <v>3950.5783277589999</v>
       </c>
       <c r="V4" s="4">
-        <f>[2]NH3_Org!V30</f>
+        <f>[2]NH3!V30</f>
         <v>4077.1330855290003</v>
       </c>
       <c r="W4" s="4">
-        <f>[2]NH3_Org!W30</f>
+        <f>[2]NH3!W30</f>
         <v>4138.961275918</v>
       </c>
       <c r="X4" s="4">
-        <f>[2]NH3_Org!X30</f>
+        <f>[2]NH3!X30</f>
         <v>4127.1247085330006</v>
       </c>
       <c r="Y4" s="4">
-        <f>[2]NH3_Org!Y30</f>
+        <f>[2]NH3!Y30</f>
         <v>4069.6364511949996</v>
       </c>
       <c r="Z4" s="4">
-        <f>[2]NH3_Org!Z30</f>
+        <f>[2]NH3!Z30</f>
         <v>3971.4968786639997</v>
       </c>
       <c r="AA4" s="4">
-        <f>[2]NH3_Org!AA30</f>
+        <f>[2]NH3!AA30</f>
         <v>4091.2313005399997</v>
       </c>
       <c r="AB4" s="4">
-        <f>[2]NH3_Org!AB30</f>
+        <f>[2]NH3!AB30</f>
         <v>4162.5804744500001</v>
       </c>
       <c r="AC4" s="4">
-        <f>[2]NH3_Org!AC30</f>
+        <f>[2]NH3!AC30</f>
         <v>4235.85090485</v>
       </c>
       <c r="AD4" s="4">
-        <f>[2]NH3_Org!AD30</f>
+        <f>[2]NH3!AD30</f>
         <v>4699.2553551399997</v>
       </c>
       <c r="AE4" s="4">
-        <f>[2]NH3_Org!AE30</f>
+        <f>[2]NH3!AE30</f>
         <v>4803.3452043179996</v>
       </c>
       <c r="AF4" s="4">
-        <f>[2]NH3_Org!AF30</f>
+        <f>[2]NH3!AF30</f>
         <v>4808.6320495200007</v>
       </c>
       <c r="AG4" s="4">
-        <f>[2]NH3_Org!AG30</f>
-        <v>4808.6320495200007</v>
+        <f>[2]NH3!AG30</f>
+        <v>4510.1526170200004</v>
       </c>
       <c r="AH4" s="4">
-        <f>[2]NH3_Org!AH30</f>
-        <v>4808.6320495200007</v>
+        <f>[2]NH3!AH30</f>
+        <v>4510.6631182519995</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="str">
-        <f>[2]NH3_Org!A18</f>
+        <f>[2]NH3!A18</f>
         <v>HIGHWAY VEHICLES</v>
       </c>
       <c r="B5" s="4">
-        <f>[2]NH3_Org!B18</f>
+        <f>[2]NH3!B18</f>
         <v>155</v>
       </c>
       <c r="C5" s="4">
-        <f>[2]NH3_Org!C18</f>
+        <f>[2]NH3!C18</f>
         <v>169</v>
       </c>
       <c r="D5" s="4">
-        <f>[2]NH3_Org!D18</f>
+        <f>[2]NH3!D18</f>
         <v>182</v>
       </c>
       <c r="E5" s="4">
-        <f>[2]NH3_Org!E18</f>
+        <f>[2]NH3!E18</f>
         <v>195</v>
       </c>
       <c r="F5" s="4">
-        <f>[2]NH3_Org!F18</f>
+        <f>[2]NH3!F18</f>
         <v>209</v>
       </c>
       <c r="G5" s="4">
-        <f>[2]NH3_Org!G18</f>
+        <f>[2]NH3!G18</f>
         <v>222</v>
       </c>
       <c r="H5" s="4">
-        <f>[2]NH3_Org!H18</f>
+        <f>[2]NH3!H18</f>
         <v>236</v>
       </c>
       <c r="I5" s="4">
-        <f>[2]NH3_Org!I18</f>
+        <f>[2]NH3!I18</f>
         <v>265</v>
       </c>
       <c r="J5" s="4">
-        <f>[2]NH3_Org!J18</f>
+        <f>[2]NH3!J18</f>
         <v>256</v>
       </c>
       <c r="K5" s="4">
-        <f>[2]NH3_Org!K18</f>
+        <f>[2]NH3!K18</f>
         <v>267</v>
       </c>
       <c r="L5" s="4">
-        <f>[2]NH3_Org!L18</f>
+        <f>[2]NH3!L18</f>
         <v>275</v>
       </c>
       <c r="M5" s="4">
-        <f>[2]NH3_Org!M18</f>
+        <f>[2]NH3!M18</f>
         <v>278</v>
       </c>
       <c r="N5" s="4">
-        <f>[2]NH3_Org!N18</f>
+        <f>[2]NH3!N18</f>
         <v>175.93167828</v>
       </c>
       <c r="O5" s="4">
-        <f>[2]NH3_Org!O18</f>
+        <f>[2]NH3!O18</f>
         <v>172.55732237000001</v>
       </c>
       <c r="P5" s="4">
-        <f>[2]NH3_Org!P18</f>
+        <f>[2]NH3!P18</f>
         <v>169.67759031</v>
       </c>
       <c r="Q5" s="4">
-        <f>[2]NH3_Org!Q18</f>
+        <f>[2]NH3!Q18</f>
         <v>165.69287012000001</v>
       </c>
       <c r="R5" s="4">
-        <f>[2]NH3_Org!R18</f>
+        <f>[2]NH3!R18</f>
         <v>162.52639137</v>
       </c>
       <c r="S5" s="4">
-        <f>[2]NH3_Org!S18</f>
+        <f>[2]NH3!S18</f>
         <v>158.46463595</v>
       </c>
       <c r="T5" s="4">
-        <f>[2]NH3_Org!T18</f>
+        <f>[2]NH3!T18</f>
         <v>149.74467817999999</v>
       </c>
       <c r="U5" s="4">
-        <f>[2]NH3_Org!U18</f>
+        <f>[2]NH3!U18</f>
         <v>145.63452622</v>
       </c>
       <c r="V5" s="4">
-        <f>[2]NH3_Org!V18</f>
+        <f>[2]NH3!V18</f>
         <v>140.16881423999999</v>
       </c>
       <c r="W5" s="4">
-        <f>[2]NH3_Org!W18</f>
+        <f>[2]NH3!W18</f>
         <v>137.01083942</v>
       </c>
       <c r="X5" s="4">
-        <f>[2]NH3_Org!X18</f>
+        <f>[2]NH3!X18</f>
         <v>130.59027012999999</v>
       </c>
       <c r="Y5" s="4">
-        <f>[2]NH3_Org!Y18</f>
+        <f>[2]NH3!Y18</f>
         <v>127.01634031</v>
       </c>
       <c r="Z5" s="4">
-        <f>[2]NH3_Org!Z18</f>
+        <f>[2]NH3!Z18</f>
         <v>121.61165862999999</v>
       </c>
       <c r="AA5" s="4">
-        <f>[2]NH3_Org!AA18</f>
+        <f>[2]NH3!AA18</f>
         <v>117.07552602</v>
       </c>
       <c r="AB5" s="4">
-        <f>[2]NH3_Org!AB18</f>
+        <f>[2]NH3!AB18</f>
         <v>108.67812815000001</v>
       </c>
       <c r="AC5" s="4">
-        <f>[2]NH3_Org!AC18</f>
+        <f>[2]NH3!AC18</f>
         <v>107.96714720999999</v>
       </c>
       <c r="AD5" s="4">
-        <f>[2]NH3_Org!AD18</f>
+        <f>[2]NH3!AD18</f>
         <v>104.12857153</v>
       </c>
       <c r="AE5" s="4">
-        <f>[2]NH3_Org!AE18</f>
+        <f>[2]NH3!AE18</f>
         <v>103.29886709</v>
       </c>
       <c r="AF5" s="4">
-        <f>[2]NH3_Org!AF18</f>
+        <f>[2]NH3!AF18</f>
         <v>90.213265218000004</v>
       </c>
       <c r="AG5" s="4">
-        <f>[2]NH3_Org!AG18</f>
-        <v>101.22706011</v>
+        <f>[2]NH3!AG18</f>
+        <v>185.61620954</v>
       </c>
       <c r="AH5" s="4">
-        <f>[2]NH3_Org!AH18</f>
-        <v>100.12314091</v>
+        <f>[2]NH3!AH18</f>
+        <v>192.48586689999999</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -35451,7 +35452,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="str">
-        <f>[2]NH3_Org!A8</f>
+        <f>[2]NH3!A8</f>
         <v>FUEL COMB. ELEC. UTIL.</v>
       </c>
       <c r="B10" s="3">
@@ -35459,7 +35460,7 @@
         <v>28.863070746600428</v>
       </c>
       <c r="C10" s="4">
-        <f>[2]NH3_Org!N8</f>
+        <f>[2]NH3!N8</f>
         <v>30.053980478</v>
       </c>
       <c r="D10" s="4">
@@ -35473,7 +35474,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="str">
-        <f>[2]NH3_Org!A9</f>
+        <f>[2]NH3!A9</f>
         <v>FUEL COMB. INDUSTRIAL</v>
       </c>
       <c r="B11" s="3">
@@ -35481,7 +35482,7 @@
         <v>16.757829308889423</v>
       </c>
       <c r="C11" s="4">
-        <f>[2]NH3_Org!N9</f>
+        <f>[2]NH3!N9</f>
         <v>17.227849455000001</v>
       </c>
       <c r="D11" s="4">
@@ -35495,7 +35496,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
-        <f>[2]NH3_Org!A10</f>
+        <f>[2]NH3!A10</f>
         <v>FUEL COMB. OTHER</v>
       </c>
       <c r="B12" s="3">
@@ -35503,7 +35504,7 @@
         <v>18.335217068074467</v>
       </c>
       <c r="C12" s="4">
-        <f>[2]NH3_Org!N10</f>
+        <f>[2]NH3!N10</f>
         <v>24.452142943999998</v>
       </c>
       <c r="D12" s="4">
@@ -35517,7 +35518,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="str">
-        <f>[2]NH3_Org!A11</f>
+        <f>[2]NH3!A11</f>
         <v>CHEMICAL &amp; ALLIED PRODUCT MFG</v>
       </c>
       <c r="B13" s="3">
@@ -35525,7 +35526,7 @@
         <v>23.12303813458141</v>
       </c>
       <c r="C13" s="4">
-        <f>[2]NH3_Org!N11</f>
+        <f>[2]NH3!N11</f>
         <v>23.123636184999999</v>
       </c>
       <c r="D13" s="4">
@@ -35539,7 +35540,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="str">
-        <f>[2]NH3_Org!A12</f>
+        <f>[2]NH3!A12</f>
         <v>METALS PROCESSING</v>
       </c>
       <c r="B14" s="3">
@@ -35547,7 +35548,7 @@
         <v>3.2484630790744005</v>
       </c>
       <c r="C14" s="4">
-        <f>[2]NH3_Org!N12</f>
+        <f>[2]NH3!N12</f>
         <v>3.2484630688</v>
       </c>
       <c r="D14" s="4">
@@ -35561,7 +35562,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="str">
-        <f>[2]NH3_Org!A13</f>
+        <f>[2]NH3!A13</f>
         <v>PETROLEUM &amp; RELATED INDUSTRIES</v>
       </c>
       <c r="B15" s="3">
@@ -35569,7 +35570,7 @@
         <v>2.8796067099822005</v>
       </c>
       <c r="C15" s="4">
-        <f>[2]NH3_Org!N13</f>
+        <f>[2]NH3!N13</f>
         <v>2.8903388844000002</v>
       </c>
       <c r="D15" s="4">
@@ -35583,7 +35584,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="str">
-        <f>[2]NH3_Org!A14</f>
+        <f>[2]NH3!A14</f>
         <v>OTHER INDUSTRIAL PROCESSES</v>
       </c>
       <c r="B16" s="3">
@@ -35591,7 +35592,7 @@
         <v>177.23902321567707</v>
       </c>
       <c r="C16" s="4">
-        <f>[2]NH3_Org!N14</f>
+        <f>[2]NH3!N14</f>
         <v>100.31108567</v>
       </c>
       <c r="D16" s="4">
@@ -35605,7 +35606,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="str">
-        <f>[2]NH3_Org!A15</f>
+        <f>[2]NH3!A15</f>
         <v>SOLVENT UTILIZATION</v>
       </c>
       <c r="B17" s="3">
@@ -35613,7 +35614,7 @@
         <v>0.29581800096790001</v>
       </c>
       <c r="C17" s="4">
-        <f>[2]NH3_Org!N15</f>
+        <f>[2]NH3!N15</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
@@ -35627,7 +35628,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="str">
-        <f>[2]NH3_Org!A16</f>
+        <f>[2]NH3!A16</f>
         <v>STORAGE &amp; TRANSPORT</v>
       </c>
       <c r="B18" s="3">
@@ -35635,7 +35636,7 @@
         <v>0.73076576589179998</v>
       </c>
       <c r="C18" s="4">
-        <f>[2]NH3_Org!N16</f>
+        <f>[2]NH3!N16</f>
         <v>0.7295270304</v>
       </c>
       <c r="D18" s="4">
@@ -35649,7 +35650,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="str">
-        <f>[2]NH3_Org!A17</f>
+        <f>[2]NH3!A17</f>
         <v>WASTE DISPOSAL &amp; RECYCLING</v>
       </c>
       <c r="B19" s="3">
@@ -35657,7 +35658,7 @@
         <v>25.762770265110309</v>
       </c>
       <c r="C19" s="4">
-        <f>[2]NH3_Org!N17</f>
+        <f>[2]NH3!N17</f>
         <v>18.028150520000001</v>
       </c>
       <c r="D19" s="4">
@@ -35671,7 +35672,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="str">
-        <f>[2]NH3_Org!A18</f>
+        <f>[2]NH3!A18</f>
         <v>HIGHWAY VEHICLES</v>
       </c>
       <c r="B20" s="3">
@@ -35679,7 +35680,7 @@
         <v>155.22697397846358</v>
       </c>
       <c r="C20" s="4">
-        <f>[2]NH3_Org!N18</f>
+        <f>[2]NH3!N18</f>
         <v>175.93167828</v>
       </c>
       <c r="D20" s="4">
@@ -35693,7 +35694,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="str">
-        <f>[2]NH3_Org!A19</f>
+        <f>[2]NH3!A19</f>
         <v>OFF-HIGHWAY</v>
       </c>
       <c r="B21" s="3">
@@ -35701,7 +35702,7 @@
         <v>2.6742859978568556</v>
       </c>
       <c r="C21" s="4">
-        <f>[2]NH3_Org!N19</f>
+        <f>[2]NH3!N19</f>
         <v>2.2876552737</v>
       </c>
       <c r="D21" s="4">
@@ -35723,7 +35724,7 @@
         <v>3314.2412230780219</v>
       </c>
       <c r="C22" s="4">
-        <f>[2]NH3_Org!N30</f>
+        <f>[2]NH3!N30</f>
         <v>3852.1996261599998</v>
       </c>
       <c r="D22" s="4">
@@ -35735,7 +35736,7 @@
         <v>0.16231721437052246</v>
       </c>
       <c r="G22" s="4">
-        <f>[2]NH3_Org!F30</f>
+        <f>[2]NH3!F30</f>
         <v>0</v>
       </c>
       <c r="H22" s="3">
@@ -35743,7 +35744,7 @@
         <v>3764.5937986634335</v>
       </c>
       <c r="I22" s="4">
-        <f>[2]NH3_Org!T30</f>
+        <f>[2]NH3!T30</f>
         <v>4168.4828002530003</v>
       </c>
       <c r="J22" s="4">
@@ -35795,7 +35796,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="str">
-        <f>[2]NH3_Org!A8</f>
+        <f>[2]NH3!A8</f>
         <v>FUEL COMB. ELEC. UTIL.</v>
       </c>
       <c r="B28" s="3">
@@ -35803,7 +35804,7 @@
         <v>27.771599346113923</v>
       </c>
       <c r="C28" s="4">
-        <f>[2]NH3_Org!O8</f>
+        <f>[2]NH3!O8</f>
         <v>30.043269378000002</v>
       </c>
       <c r="D28" s="4">
@@ -35817,7 +35818,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="str">
-        <f>[2]NH3_Org!A9</f>
+        <f>[2]NH3!A9</f>
         <v>FUEL COMB. INDUSTRIAL</v>
       </c>
       <c r="B29" s="3">
@@ -35825,7 +35826,7 @@
         <v>17.682545782542267</v>
       </c>
       <c r="C29" s="4">
-        <f>[2]NH3_Org!O9</f>
+        <f>[2]NH3!O9</f>
         <v>17.309820307999999</v>
       </c>
       <c r="D29" s="4">
@@ -35839,7 +35840,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="str">
-        <f>[2]NH3_Org!A10</f>
+        <f>[2]NH3!A10</f>
         <v>FUEL COMB. OTHER</v>
       </c>
       <c r="B30" s="3">
@@ -35847,7 +35848,7 @@
         <v>18.148873130664224</v>
       </c>
       <c r="C30" s="4">
-        <f>[2]NH3_Org!O10</f>
+        <f>[2]NH3!O10</f>
         <v>25.241571096000001</v>
       </c>
       <c r="D30" s="4">
@@ -35861,7 +35862,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="str">
-        <f>[2]NH3_Org!A11</f>
+        <f>[2]NH3!A11</f>
         <v>CHEMICAL &amp; ALLIED PRODUCT MFG</v>
       </c>
       <c r="B31" s="3">
@@ -35869,7 +35870,7 @@
         <v>21.336391936676655</v>
       </c>
       <c r="C31" s="4">
-        <f>[2]NH3_Org!O11</f>
+        <f>[2]NH3!O11</f>
         <v>23.123636184999999</v>
       </c>
       <c r="D31" s="4">
@@ -35883,7 +35884,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="str">
-        <f>[2]NH3_Org!A12</f>
+        <f>[2]NH3!A12</f>
         <v>METALS PROCESSING</v>
       </c>
       <c r="B32" s="3">
@@ -35891,7 +35892,7 @@
         <v>3.0723200494619536</v>
       </c>
       <c r="C32" s="4">
-        <f>[2]NH3_Org!O12</f>
+        <f>[2]NH3!O12</f>
         <v>3.2484630688</v>
       </c>
       <c r="D32" s="4">
@@ -35905,7 +35906,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="str">
-        <f>[2]NH3_Org!A13</f>
+        <f>[2]NH3!A13</f>
         <v>PETROLEUM &amp; RELATED INDUSTRIES</v>
       </c>
       <c r="B33" s="3">
@@ -35913,7 +35914,7 @@
         <v>2.4138357047503041</v>
       </c>
       <c r="C33" s="4">
-        <f>[2]NH3_Org!O13</f>
+        <f>[2]NH3!O13</f>
         <v>2.8942309715999999</v>
       </c>
       <c r="D33" s="4">
@@ -35927,7 +35928,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="str">
-        <f>[2]NH3_Org!A14</f>
+        <f>[2]NH3!A14</f>
         <v>OTHER INDUSTRIAL PROCESSES</v>
       </c>
       <c r="B34" s="3">
@@ -35935,7 +35936,7 @@
         <v>178.04404555208677</v>
       </c>
       <c r="C34" s="4">
-        <f>[2]NH3_Org!O14</f>
+        <f>[2]NH3!O14</f>
         <v>100.31108567</v>
       </c>
       <c r="D34" s="4">
@@ -35949,7 +35950,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="str">
-        <f>[2]NH3_Org!A15</f>
+        <f>[2]NH3!A15</f>
         <v>SOLVENT UTILIZATION</v>
       </c>
       <c r="B35" s="3">
@@ -35957,7 +35958,7 @@
         <v>0.31790533737545706</v>
       </c>
       <c r="C35" s="4">
-        <f>[2]NH3_Org!O15</f>
+        <f>[2]NH3!O15</f>
         <v>0</v>
       </c>
       <c r="D35" s="4">
@@ -35971,7 +35972,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="str">
-        <f>[2]NH3_Org!A16</f>
+        <f>[2]NH3!A16</f>
         <v>STORAGE &amp; TRANSPORT</v>
       </c>
       <c r="B36" s="3">
@@ -35979,7 +35980,7 @@
         <v>0.68437636488273335</v>
       </c>
       <c r="C36" s="4">
-        <f>[2]NH3_Org!O16</f>
+        <f>[2]NH3!O16</f>
         <v>0.7295270304</v>
       </c>
       <c r="D36" s="4">
@@ -35993,7 +35994,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="str">
-        <f>[2]NH3_Org!A17</f>
+        <f>[2]NH3!A17</f>
         <v>WASTE DISPOSAL &amp; RECYCLING</v>
       </c>
       <c r="B37" s="3">
@@ -36001,7 +36002,7 @@
         <v>26.448957430173621</v>
       </c>
       <c r="C37" s="4">
-        <f>[2]NH3_Org!O17</f>
+        <f>[2]NH3!O17</f>
         <v>18.547371080000001</v>
       </c>
       <c r="D37" s="4">
@@ -36015,7 +36016,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="str">
-        <f>[2]NH3_Org!A18</f>
+        <f>[2]NH3!A18</f>
         <v>HIGHWAY VEHICLES</v>
       </c>
       <c r="B38" s="3">
@@ -36023,7 +36024,7 @@
         <v>152.08354276631124</v>
       </c>
       <c r="C38" s="4">
-        <f>[2]NH3_Org!O18</f>
+        <f>[2]NH3!O18</f>
         <v>172.55732237000001</v>
       </c>
       <c r="D38" s="4">
@@ -36037,7 +36038,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="str">
-        <f>[2]NH3_Org!A19</f>
+        <f>[2]NH3!A19</f>
         <v>OFF-HIGHWAY</v>
       </c>
       <c r="B39" s="3">
@@ -36045,7 +36046,7 @@
         <v>2.7070780186658872</v>
       </c>
       <c r="C39" s="4">
-        <f>[2]NH3_Org!O19</f>
+        <f>[2]NH3!O19</f>
         <v>2.4069107514999999</v>
       </c>
       <c r="D39" s="4">
@@ -36059,7 +36060,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="str">
-        <f>[2]NH3_Org!A30</f>
+        <f>[2]NH3!A30</f>
         <v>Miscellaneous without wildfires</v>
       </c>
       <c r="B40" s="3">
@@ -36067,7 +36068,7 @@
         <v>3329.678786579545</v>
       </c>
       <c r="C40" s="4">
-        <f>[2]NH3_Org!O30</f>
+        <f>[2]NH3!O30</f>
         <v>3877.0037543200001</v>
       </c>
       <c r="D40" s="4">
@@ -36102,7 +36103,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <f>[2]NH3_Org!A22</f>
+        <f>[2]NH3!A22</f>
         <v>0</v>
       </c>
       <c r="B42" s="3">
@@ -36110,7 +36111,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="4">
-        <f>[2]NH3_Org!O22</f>
+        <f>[2]NH3!O22</f>
         <v>0</v>
       </c>
       <c r="D42" s="4">
@@ -36502,7 +36503,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <f>[2]NH3_Org!A23</f>
+        <f>[2]NH3!A23</f>
         <v>0</v>
       </c>
       <c r="B62" s="3">
@@ -36510,7 +36511,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="4">
-        <f>[2]NH3_Org!O23</f>
+        <f>[2]NH3!O23</f>
         <v>0</v>
       </c>
       <c r="D62" s="4">
@@ -36524,7 +36525,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <f>[2]NH3_Org!A24</f>
+        <f>[2]NH3!A24</f>
         <v>0</v>
       </c>
       <c r="B63" s="3">
@@ -36532,7 +36533,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="4">
-        <f>[2]NH3_Org!O24</f>
+        <f>[2]NH3!O24</f>
         <v>0</v>
       </c>
       <c r="D63" s="4">
@@ -36546,7 +36547,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="str">
-        <f>[2]NH3_Org!A25</f>
+        <f>[2]NH3!A25</f>
         <v>Total</v>
       </c>
       <c r="B64" s="3">
@@ -36554,7 +36555,7 @@
         <v>4005.1291414877496</v>
       </c>
       <c r="C64" s="4">
-        <f>[2]NH3_Org!O25</f>
+        <f>[2]NH3!O25</f>
         <v>4433.2958993092998</v>
       </c>
       <c r="D64" s="4">
@@ -36568,7 +36569,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="str">
-        <f>[2]NH3_Org!A26</f>
+        <f>[2]NH3!A26</f>
         <v>Miscellaneous</v>
       </c>
       <c r="B65" s="3">
@@ -36576,7 +36577,7 @@
         <v>3554.4176700680446</v>
       </c>
       <c r="C65" s="4">
-        <f>[2]NH3_Org!O26</f>
+        <f>[2]NH3!O26</f>
         <v>4036.8826914000001</v>
       </c>
       <c r="D65" s="4">
@@ -36590,7 +36591,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="str">
-        <f>[2]NH3_Org!A27</f>
+        <f>[2]NH3!A27</f>
         <v>Total without miscellaneous</v>
       </c>
       <c r="B66" s="3">
@@ -36598,7 +36599,7 @@
         <v>450.71147141970505</v>
       </c>
       <c r="C66" s="4">
-        <f>[2]NH3_Org!O27</f>
+        <f>[2]NH3!O27</f>
         <v>396.41320790929967</v>
       </c>
       <c r="D66" s="4">
@@ -36612,7 +36613,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="str">
-        <f>[2]NH3_Org!A28</f>
+        <f>[2]NH3!A28</f>
         <v>Wildfires</v>
       </c>
       <c r="B67" s="3">
@@ -36620,7 +36621,7 @@
         <v>224.7388834884996</v>
       </c>
       <c r="C67" s="4">
-        <f>[2]NH3_Org!O28</f>
+        <f>[2]NH3!O28</f>
         <v>159.87893707999999</v>
       </c>
       <c r="D67" s="4">
@@ -36634,7 +36635,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="str">
-        <f>[2]NH3_Org!A29</f>
+        <f>[2]NH3!A29</f>
         <v>Total without wildfires</v>
       </c>
       <c r="B68" s="3">
@@ -36642,7 +36643,7 @@
         <v>3780.39025799925</v>
       </c>
       <c r="C68" s="4">
-        <f>[2]NH3_Org!O29</f>
+        <f>[2]NH3!O29</f>
         <v>4273.4169622293002</v>
       </c>
       <c r="D68" s="4">
